--- a/src/main/resources/DSAlgoExcelsheets/ScenarioData.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/ScenarioData.xlsx
@@ -1,19 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\gitsss\DsAlgoQuesters\src\main\resources\DSAlgoExcelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0639BB5-0A87-4AA6-82DF-2FA8817F0C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C743AED2-0B44-47FE-ADD5-BB0D09578051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
+    <workbookView xWindow="4780" yWindow="1810" windowWidth="14400" windowHeight="8170" tabRatio="935" activeTab="13" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Home" sheetId="1" r:id="rId1"/>
+    <sheet name="Home2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Structures-Introduction" sheetId="3" r:id="rId3"/>
+    <sheet name="Array" sheetId="4" r:id="rId4"/>
+    <sheet name="Linked List" sheetId="5" r:id="rId5"/>
+    <sheet name="Stack" sheetId="6" r:id="rId6"/>
+    <sheet name="Queue" sheetId="7" r:id="rId7"/>
+    <sheet name="Tree" sheetId="8" r:id="rId8"/>
+    <sheet name="Graph" sheetId="9" r:id="rId9"/>
+    <sheet name="tryEditor" sheetId="10" r:id="rId10"/>
+    <sheet name="Search the array" sheetId="11" r:id="rId11"/>
+    <sheet name="Max Consecutive Ones" sheetId="12" r:id="rId12"/>
+    <sheet name="Find Numbers with Even Number o" sheetId="13" r:id="rId13"/>
+    <sheet name="Squares of  a Sorted Array" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -427,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C636BF8-0241-4EC8-A960-60004AB9F6BB}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -467,4 +480,160 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA0E64C-D73D-4916-9D42-8E0DB79F5F30}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D10C25-BCC6-4F95-9FC1-2E6FCB100ED4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759B0BF3-0D63-4ED3-8FB9-A8A1C5D7E30D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857496CA-14D4-4F59-AD9C-0CF7F103AF4D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0024F72-2E55-4BB5-BDE8-04A1B026ED6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE99ABE-B139-41F3-ACEE-89305BA9E20C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F420C866-BFB7-443C-B947-F78E45D296EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FE1576-1CA8-4CD4-AA6D-1758DDFD0CE2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C429897D-8D33-4498-B8B0-B8FC2D5DAE4D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE713873-4940-4DFF-8426-D49562607838}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184EC374-1C5F-483C-B6DC-C8765534235D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00AFEE4-CD9A-4103-8AD7-4D2E09BEC97B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1577733D-C777-46F0-BC94-652458A6D059}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/DSAlgoExcelsheets/ScenarioData.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/ScenarioData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\gitsss\DsAlgoQuesters\src\main\resources\DSAlgoExcelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C743AED2-0B44-47FE-ADD5-BB0D09578051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3D36C7-3D47-4115-BF18-7CB245643311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="1810" windowWidth="14400" windowHeight="8170" tabRatio="935" activeTab="13" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="992" activeTab="1" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="Max Consecutive Ones" sheetId="12" r:id="rId12"/>
     <sheet name="Find Numbers with Even Number o" sheetId="13" r:id="rId13"/>
     <sheet name="Squares of  a Sorted Array" sheetId="14" r:id="rId14"/>
+    <sheet name="Signin" sheetId="15" r:id="rId15"/>
+    <sheet name="Register" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -498,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D10C25-BCC6-4F95-9FC1-2E6FCB100ED4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -510,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759B0BF3-0D63-4ED3-8FB9-A8A1C5D7E30D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -534,7 +536,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0024F72-2E55-4BB5-BDE8-04A1B026ED6F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85C8A16-4E1A-4816-B2C2-3D7A502A2EAB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="FR1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB20230-5E41-4E3C-B5E3-5E9DF9EC93CA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -546,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE99ABE-B139-41F3-ACEE-89305BA9E20C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/src/main/resources/DSAlgoExcelsheets/ScenarioData.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/ScenarioData.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\gitsss\DsAlgoQuesters\src\main\resources\DSAlgoExcelsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shaalu\Eclipse Workspace\Main Project\DsAlgoQuesters\src\main\resources\DSAlgoExcelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3D36C7-3D47-4115-BF18-7CB245643311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5884FA25-557D-42AB-ADD5-8F0AA74D3614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="992" activeTab="1" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="992" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Home" sheetId="1" r:id="rId1"/>
-    <sheet name="Home2" sheetId="2" r:id="rId2"/>
-    <sheet name="Data Structures-Introduction" sheetId="3" r:id="rId3"/>
+    <sheet name="DataStructures_Valid Code" sheetId="3" r:id="rId1"/>
+    <sheet name="Home" sheetId="1" r:id="rId2"/>
+    <sheet name="Home2" sheetId="2" r:id="rId3"/>
     <sheet name="Array" sheetId="4" r:id="rId4"/>
     <sheet name="Linked List" sheetId="5" r:id="rId5"/>
     <sheet name="Stack" sheetId="6" r:id="rId6"/>
@@ -42,8 +42,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>Arrays</t>
   </si>
@@ -69,13 +67,166 @@
   </si>
   <si>
     <t>Graph</t>
+  </si>
+  <si>
+    <t>Questers</t>
+  </si>
+  <si>
+    <t>Awesome@2025</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Feature File  scenario number</t>
+  </si>
+  <si>
+    <t>Verify the user gets error message without entering Username and Password when clicking on login button</t>
+  </si>
+  <si>
+    <t>Verify the user gets error message giving username without entering Password when  clicking on login button</t>
+  </si>
+  <si>
+    <t>Verify the user gets error message without entering  username  and giving Password when clicking on login button</t>
+  </si>
+  <si>
+    <t>Verify the user gets error message giving invalid username and valid Password when clicking on login button</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Verify the user gets error message giving valid username and invalid Password when clicking on login button</t>
+  </si>
+  <si>
+    <t>Verify the user gets error message giving invalid  username and invalid Password when clicking on login button</t>
+  </si>
+  <si>
+    <t>Test@991</t>
+  </si>
+  <si>
+    <t>Verify the user is able to login  giving valid username and valid password when clicking on login button</t>
+  </si>
+  <si>
+    <t>Verify that user is able to login after entering valid username ,password and password confirmation when clicking on register button</t>
+  </si>
+  <si>
+    <t>password confirmation</t>
+  </si>
+  <si>
+    <t>Verify that user gets error message giving username without entering  password and password confirmation when clicking on register button</t>
+  </si>
+  <si>
+    <t>Verify that user gets error message giving username and password  without entering   password confirmation when clicking on register button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user gets error message without entering username , password andpassword confirmation when clicking on register button </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that user gets error mesage when entering only numeric when clicking on register button </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that user gets error message giving username and entering password and password confirmation different when clicking on register button</t>
+  </si>
+  <si>
+    <t>test@9991</t>
+  </si>
+  <si>
+    <t>Tester@4441</t>
+  </si>
+  <si>
+    <t>Questers$</t>
+  </si>
+  <si>
+    <t>Verify that user gets error message giving invalid username like %,$,&amp; (Example:  Tom$, Tom%) when clicking on register button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user gets error message while entering the password less than 8 characters when clicking on register button </t>
+  </si>
+  <si>
+    <t>Aweso</t>
+  </si>
+  <si>
+    <t>DataStructure-Introduction</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>DataStructureDropDownOptions</t>
+  </si>
+  <si>
+    <t>expectedurl</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/array/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/linked-list/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/stack/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/queue/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tree/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/graph/</t>
+  </si>
+  <si>
+    <t>valid_data</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>print "hello"</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>print "java"</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>print "selenium"</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>print "sql"</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>print "api"</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario number </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +234,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,15 +277,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{FC0C2D2D-F208-4871-9985-5388942B3473}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,44 +655,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C636BF8-0241-4EC8-A960-60004AB9F6BB}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F420C866-BFB7-443C-B947-F78E45D296EC}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +746,7 @@
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -502,7 +758,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -514,7 +770,7 @@
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -526,7 +782,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -538,7 +794,7 @@
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -546,50 +802,432 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85C8A16-4E1A-4816-B2C2-3D7A502A2EAB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="FR1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dimension ref="FR1:FU8"/>
+  <sheetViews>
+    <sheetView topLeftCell="FR1" workbookViewId="0">
+      <selection activeCell="FU1" sqref="FU1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="174" max="174" width="17.33203125" customWidth="1"/>
+    <col min="175" max="175" width="16.109375" customWidth="1"/>
+    <col min="176" max="176" width="53.88671875" customWidth="1"/>
+    <col min="177" max="177" width="27.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="174:177" x14ac:dyDescent="0.3">
+      <c r="FR1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="FS1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="FT1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="FU1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="174:177" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="FR2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="FS2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="FT2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="FU2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="174:177" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="FR3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="FS3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="FT3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="FU3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="174:177" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="FR4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="FS4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="FT4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="FU4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="174:177" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="FR5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="FS5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="FT5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="FU5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="174:177" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="FR6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="FS6" s="1"/>
+      <c r="FT6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="FU6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="174:177" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="FR7" s="1"/>
+      <c r="FS7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="FT7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="FU7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="174:177" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="FR8" s="1"/>
+      <c r="FS8" s="1"/>
+      <c r="FT8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="FU8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="FS2" r:id="rId1" xr:uid="{898F0574-E4BA-410A-90B4-EBC27FC085F8}"/>
+    <hyperlink ref="FS3" r:id="rId2" xr:uid="{481C0604-F64B-4FD5-BBC0-2FF60421366B}"/>
+    <hyperlink ref="FS4" r:id="rId3" xr:uid="{E784E833-DC84-4971-8616-15954D6E0E4A}"/>
+    <hyperlink ref="FS5" r:id="rId4" xr:uid="{C42988F8-44C2-4397-8A28-3039766AF79C}"/>
+    <hyperlink ref="FS7" r:id="rId5" xr:uid="{2F1E3095-D3C1-419B-AF62-FCDE833A7741}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB20230-5E41-4E3C-B5E3-5E9DF9EC93CA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="32.44140625" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>14953</v>
+      </c>
+      <c r="C7" s="6">
+        <v>14953</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{02AC6826-CAFB-4563-9B46-F56D28602457}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{63677E69-12BF-413B-A3A6-30DEB42A8BFC}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{8AC4E5F6-ED73-42D6-BEFB-C374DDB30F3E}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{D93ECFB0-08F2-44D1-8099-FA63C63F714C}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{0CEF64AF-48BF-4C56-9B7C-E3050B8619D0}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{D083A597-1066-476E-818F-0A23FC734258}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{951C153C-4392-4A51-B396-BD19C4E6DFD7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C636BF8-0241-4EC8-A960-60004AB9F6BB}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE99ABE-B139-41F3-ACEE-89305BA9E20C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F420C866-BFB7-443C-B947-F78E45D296EC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <dimension ref="L1:M7"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="33.33203125" customWidth="1"/>
+    <col min="13" max="13" width="45.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -600,7 +1238,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -612,7 +1250,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -624,7 +1262,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -636,7 +1274,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -648,7 +1286,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -660,7 +1298,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
